--- a/xlsx/美国媒体_intext.xlsx
+++ b/xlsx/美国媒体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="456">
   <si>
     <t>美国媒体</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国媒体</t>
+    <t>政策_政策_美国_美国媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E9%80%9A%E8%A8%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯邦通訊委員會</t>
+    <t>联邦通讯委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E5%B9%BF%E6%92%AD%E5%85%AC%E5%8F%B8</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福斯廣播公司</t>
+    <t>福斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Fox</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>華納兄弟</t>
+    <t>华纳兄弟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>CW電視網</t>
+    <t>CW电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CW</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%9A%E5%A0%B1</t>
   </si>
   <si>
-    <t>晚報</t>
+    <t>晚报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EBay</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>時代</t>
+    <t>时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E5%91%A8%E5%88%8A</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -785,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -803,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -971,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1007,13 +1007,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1061,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1115,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1211,15 +1211,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1229,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1313,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1349,19 +1346,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1373,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -7556,7 +7553,7 @@
         <v>399</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7582,10 +7579,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -7611,10 +7608,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7640,10 +7637,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7669,10 +7666,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7698,10 +7695,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -7727,10 +7724,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7756,10 +7753,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7785,10 +7782,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7814,10 +7811,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7843,10 +7840,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7872,10 +7869,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7901,10 +7898,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7930,10 +7927,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7959,10 +7956,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7988,10 +7985,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8017,10 +8014,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8046,10 +8043,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8075,10 +8072,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8104,10 +8101,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8133,10 +8130,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8162,10 +8159,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8191,10 +8188,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8220,10 +8217,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8249,10 +8246,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8278,10 +8275,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -8307,10 +8304,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8336,10 +8333,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8365,10 +8362,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
